--- a/testData/SFS_AllMobile_Tbl_RThree.xlsx
+++ b/testData/SFS_AllMobile_Tbl_RThree.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -204,9 +204,6 @@
     <t>Select Yes or No..?</t>
   </si>
   <si>
-    <t>Choice the value..!</t>
-  </si>
-  <si>
     <t>Tap the mic and record the voice</t>
   </si>
   <si>
@@ -297,34 +294,40 @@
     <t>formshow_31102023</t>
   </si>
   <si>
-    <t>Appointment Date : 02/11/2023, Time : [ 09:00 AM to 09:04 AM ]</t>
-  </si>
-  <si>
-    <t>Book an appointment</t>
-  </si>
-  <si>
-    <t>Appointment Date : 02/11/2023, Time : [ 09:15 AM to 09:19 AM ]</t>
-  </si>
-  <si>
-    <t>Appointment Date : 02/11/2023, Time : [ 09:25 AM to 09:29 AM ]</t>
-  </si>
-  <si>
-    <t>Appointment Date : 02/11/2023, Time : [ 09:30 AM to 09:34 AM ]</t>
-  </si>
-  <si>
-    <t>Appointment Date : 02/11/2023, Time : [ 11:00 AM to 11:04 AM ]</t>
-  </si>
-  <si>
-    <t>Appointment Date : 02/11/2023, Time : [ 11:10 AM to 11:14 AM ]</t>
-  </si>
-  <si>
-    <t>Appointment Date : 02/11/2023, Time : [ 11:15 AM to 11:19 AM ]</t>
-  </si>
-  <si>
-    <t>Appointment Date : 02/11/2023, Time : [ 11:20 AM to 11:24 AM ]</t>
-  </si>
-  <si>
-    <t>Appointment Date : 02/11/2023, Time : [ 11:25 AM to 11:29 AM ]</t>
+    <t>Appointment Date : 03/11/2023, Time : [ 10:55 AM to 10:59 AM ]</t>
+  </si>
+  <si>
+    <t>Choose the value..!</t>
+  </si>
+  <si>
+    <t>Appointment Date : 03/11/2023, Time : [ 11:00 AM to 11:04 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 03/11/2023, Time : [ 11:10 AM to 11:14 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 03/11/2023, Time : [ 11:15 AM to 11:19 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 03/11/2023, Time : [ 11:20 AM to 11:24 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 03/11/2023, Time : [ 11:25 AM to 11:29 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 03/11/2023, Time : [ 11:40 AM to 11:44 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 03/11/2023, Time : [ 11:45 AM to 11:49 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 03/11/2023, Time : [ 11:50 AM to 11:54 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 03/11/2023, Time : [ 11:55 AM to 11:59 AM ]</t>
+  </si>
+  <si>
+    <t>03/11/2023</t>
   </si>
 </sst>
 </file>
@@ -666,7 +669,7 @@
   <dimension ref="A1:AX2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -726,10 +729,10 @@
         <v>44</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E1" t="s" s="0">
         <v>1</v>
@@ -861,27 +864,27 @@
         <v>27</v>
       </c>
       <c r="AV1" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="AW1" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="AW1" t="s" s="0">
-        <v>69</v>
-      </c>
       <c r="AX1" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="D2" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>45</v>
@@ -890,19 +893,19 @@
         <v>46</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s" s="0">
         <v>47</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L2" t="s" s="0">
         <v>49</v>
@@ -920,16 +923,16 @@
         <v>51</v>
       </c>
       <c r="Q2" t="s" s="0">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R2" t="s" s="0">
         <v>52</v>
       </c>
       <c r="S2" t="s" s="0">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T2" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U2" s="0">
         <v>1234567890</v>
@@ -944,7 +947,7 @@
         <v>55</v>
       </c>
       <c r="Y2" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z2" t="s" s="0">
         <v>53</v>
@@ -955,63 +958,65 @@
       <c r="AB2" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="AC2" s="0"/>
+      <c r="AC2" t="s" s="0">
+        <v>102</v>
+      </c>
       <c r="AD2" t="s" s="0">
         <v>58</v>
       </c>
       <c r="AE2" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AF2" t="s" s="0">
         <v>59</v>
       </c>
       <c r="AH2" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI2" t="s" s="0">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AJ2" t="s" s="0">
         <v>60</v>
       </c>
       <c r="AK2" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="AL2" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="AL2" t="s" s="0">
-        <v>79</v>
-      </c>
       <c r="AM2" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AN2" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="AO2" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="AP2" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="AQ2" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="AR2" t="s" s="0">
         <v>61</v>
-      </c>
-      <c r="AO2" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="AP2" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="AQ2" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="AR2" t="s" s="0">
-        <v>62</v>
       </c>
       <c r="AT2" t="s" s="0">
         <v>57</v>
       </c>
       <c r="AU2" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AV2" t="s" s="0">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AX2" t="s" s="0">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/testData/SFS_AllMobile_Tbl_RThree.xlsx
+++ b/testData/SFS_AllMobile_Tbl_RThree.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="107">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -328,6 +328,18 @@
   </si>
   <si>
     <t>03/11/2023</t>
+  </si>
+  <si>
+    <t>Appointment Date : 06/11/2023, Time : [ 09:00 AM to 09:04 AM ]</t>
+  </si>
+  <si>
+    <t>04/11/2023</t>
+  </si>
+  <si>
+    <t>Appointment Date : 06/11/2023, Time : [ 09:05 AM to 09:09 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 06/11/2023, Time : [ 09:10 AM to 09:14 AM ]</t>
   </si>
 </sst>
 </file>
@@ -917,7 +929,7 @@
         <v>50</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="P2" t="s" s="0">
         <v>51</v>
@@ -959,7 +971,7 @@
         <v>56</v>
       </c>
       <c r="AC2" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AD2" t="s" s="0">
         <v>58</v>

--- a/testData/SFS_AllMobile_Tbl_RThree.xlsx
+++ b/testData/SFS_AllMobile_Tbl_RThree.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="123">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -340,6 +340,54 @@
   </si>
   <si>
     <t>Appointment Date : 06/11/2023, Time : [ 09:10 AM to 09:14 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 08/11/2023, Time : [ 09:10 AM to 09:14 AM ]</t>
+  </si>
+  <si>
+    <t>08/11/2023</t>
+  </si>
+  <si>
+    <t>Appointment Date : 08/11/2023, Time : [ 09:15 AM to 09:19 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 08/11/2023, Time : [ 09:20 AM to 09:24 AM ]</t>
+  </si>
+  <si>
+    <t>voice_record_08112023</t>
+  </si>
+  <si>
+    <t>Appointment Date : 08/11/2023, Time : [ 09:25 AM to 09:29 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 08/11/2023, Time : [ 09:30 AM to 09:34 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 08/11/2023, Time : [ 09:35 AM to 09:39 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 08/11/2023, Time : [ 09:40 AM to 09:44 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 08/11/2023, Time : [ 09:50 AM to 09:54 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 08/11/2023, Time : [ 09:55 AM to 09:59 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 08/11/2023, Time : [ 10:00 AM to 10:04 AM ]</t>
+  </si>
+  <si>
+    <t>formshow_08112023</t>
+  </si>
+  <si>
+    <t>Appointment Date : 08/11/2023, Time : [ 10:05 AM to 10:09 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 08/11/2023, Time : [ 10:10 AM to 10:14 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 08/11/2023, Time : [ 10:15 AM to 10:19 AM ]</t>
   </si>
 </sst>
 </file>
@@ -929,7 +977,7 @@
         <v>50</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="P2" t="s" s="0">
         <v>51</v>
@@ -971,7 +1019,7 @@
         <v>56</v>
       </c>
       <c r="AC2" t="s" s="0">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="AD2" t="s" s="0">
         <v>58</v>
@@ -1015,6 +1063,9 @@
       <c r="AR2" t="s" s="0">
         <v>61</v>
       </c>
+      <c r="AS2" t="s" s="0">
+        <v>111</v>
+      </c>
       <c r="AT2" t="s" s="0">
         <v>57</v>
       </c>
@@ -1022,7 +1073,7 @@
         <v>64</v>
       </c>
       <c r="AV2" t="s" s="0">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="AW2" s="3" t="s">
         <v>71</v>

--- a/testData/SFS_AllMobile_Tbl_RThree.xlsx
+++ b/testData/SFS_AllMobile_Tbl_RThree.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="130">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -388,6 +388,27 @@
   </si>
   <si>
     <t>Appointment Date : 08/11/2023, Time : [ 10:15 AM to 10:19 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 14/11/2023, Time : [ 09:00 AM to 09:04 AM ]</t>
+  </si>
+  <si>
+    <t>14/11/2023</t>
+  </si>
+  <si>
+    <t>voice_record_14112023</t>
+  </si>
+  <si>
+    <t>Appointment Date : 15/11/2023, Time : [ 09:00 AM to 09:04 AM ]</t>
+  </si>
+  <si>
+    <t>15/11/2023</t>
+  </si>
+  <si>
+    <t>voice_record_15112023</t>
+  </si>
+  <si>
+    <t>formshow_15112023</t>
   </si>
 </sst>
 </file>
@@ -977,7 +998,7 @@
         <v>50</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="P2" t="s" s="0">
         <v>51</v>
@@ -1019,7 +1040,7 @@
         <v>56</v>
       </c>
       <c r="AC2" t="s" s="0">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="AD2" t="s" s="0">
         <v>58</v>
@@ -1064,7 +1085,7 @@
         <v>61</v>
       </c>
       <c r="AS2" t="s" s="0">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="AT2" t="s" s="0">
         <v>57</v>
@@ -1073,7 +1094,7 @@
         <v>64</v>
       </c>
       <c r="AV2" t="s" s="0">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="AW2" s="3" t="s">
         <v>71</v>

--- a/testData/SFS_AllMobile_Tbl_RThree.xlsx
+++ b/testData/SFS_AllMobile_Tbl_RThree.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="131">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -409,6 +409,9 @@
   </si>
   <si>
     <t>formshow_15112023</t>
+  </si>
+  <si>
+    <t>Appointment Date : 15/11/2023, Time : [ 09:05 AM to 09:09 AM ]</t>
   </si>
 </sst>
 </file>
@@ -998,7 +1001,7 @@
         <v>50</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="P2" t="s" s="0">
         <v>51</v>

--- a/testData/SFS_AllMobile_Tbl_RThree.xlsx
+++ b/testData/SFS_AllMobile_Tbl_RThree.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="132">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -412,6 +412,9 @@
   </si>
   <si>
     <t>Appointment Date : 15/11/2023, Time : [ 09:05 AM to 09:09 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 15/11/2023, Time : [ 09:20 AM to 09:24 AM ]</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1004,7 @@
         <v>50</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P2" t="s" s="0">
         <v>51</v>

--- a/testData/SFS_AllMobile_Tbl_RThree.xlsx
+++ b/testData/SFS_AllMobile_Tbl_RThree.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="136">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -415,6 +415,18 @@
   </si>
   <si>
     <t>Appointment Date : 15/11/2023, Time : [ 09:20 AM to 09:24 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 16/11/2023, Time : [ 09:00 AM to 09:04 AM ]</t>
+  </si>
+  <si>
+    <t>16/11/2023</t>
+  </si>
+  <si>
+    <t>voice_record_16112023</t>
+  </si>
+  <si>
+    <t>formshow_16112023</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1016,7 @@
         <v>50</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P2" t="s" s="0">
         <v>51</v>
@@ -1046,7 +1058,7 @@
         <v>56</v>
       </c>
       <c r="AC2" t="s" s="0">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AD2" t="s" s="0">
         <v>58</v>
@@ -1091,7 +1103,7 @@
         <v>61</v>
       </c>
       <c r="AS2" t="s" s="0">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AT2" t="s" s="0">
         <v>57</v>
@@ -1100,7 +1112,7 @@
         <v>64</v>
       </c>
       <c r="AV2" t="s" s="0">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="AW2" s="3" t="s">
         <v>71</v>

--- a/testData/SFS_AllMobile_Tbl_RThree.xlsx
+++ b/testData/SFS_AllMobile_Tbl_RThree.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="144">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -427,6 +427,30 @@
   </si>
   <si>
     <t>formshow_16112023</t>
+  </si>
+  <si>
+    <t>Appointment Date : 16/11/2023, Time : [ 09:10 AM to 09:14 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 16/11/2023, Time : [ 09:15 AM to 09:19 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 16/11/2023, Time : [ 09:20 AM to 09:24 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 16/11/2023, Time : [ 09:25 AM to 09:29 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 16/11/2023, Time : [ 09:30 AM to 09:34 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 16/11/2023, Time : [ 09:35 AM to 09:39 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 16/11/2023, Time : [ 09:40 AM to 09:44 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 16/11/2023, Time : [ 09:45 AM to 09:49 AM ]</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1040,7 @@
         <v>50</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="P2" t="s" s="0">
         <v>51</v>

--- a/testData/SFS_AllMobile_Tbl_RThree.xlsx
+++ b/testData/SFS_AllMobile_Tbl_RThree.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="151">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -451,6 +451,27 @@
   </si>
   <si>
     <t>Appointment Date : 16/11/2023, Time : [ 09:45 AM to 09:49 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 16/11/2023, Time : [ 09:50 AM to 09:54 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 20/11/2023, Time : [ 09:00 AM to 09:04 AM ]</t>
+  </si>
+  <si>
+    <t>19/11/2023</t>
+  </si>
+  <si>
+    <t>voice_record_19112023</t>
+  </si>
+  <si>
+    <t>Appointment Date : 20/11/2023, Time : [ 09:05 AM to 09:09 AM ]</t>
+  </si>
+  <si>
+    <t>20/11/2023</t>
+  </si>
+  <si>
+    <t>voice_record_20112023</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1061,7 @@
         <v>50</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P2" t="s" s="0">
         <v>51</v>
@@ -1082,7 +1103,7 @@
         <v>56</v>
       </c>
       <c r="AC2" t="s" s="0">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="AD2" t="s" s="0">
         <v>58</v>
@@ -1127,7 +1148,7 @@
         <v>61</v>
       </c>
       <c r="AS2" t="s" s="0">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="AT2" t="s" s="0">
         <v>57</v>

--- a/testData/SFS_AllMobile_Tbl_RThree.xlsx
+++ b/testData/SFS_AllMobile_Tbl_RThree.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="157">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -472,6 +472,24 @@
   </si>
   <si>
     <t>voice_record_20112023</t>
+  </si>
+  <si>
+    <t>Appointment Date : 21/11/2023, Time : [ 09:00 AM to 09:04 AM ]</t>
+  </si>
+  <si>
+    <t>21/11/2023</t>
+  </si>
+  <si>
+    <t>voice_record_21112023</t>
+  </si>
+  <si>
+    <t>Appointment Date : 22/11/2023, Time : [ 09:00 AM to 09:04 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 22/11/2023, Time : [ 09:05 AM to 09:09 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 21/11/2023, Time : [ 09:05 AM to 09:09 AM ]</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1079,7 @@
         <v>50</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="P2" t="s" s="0">
         <v>51</v>
@@ -1103,7 +1121,7 @@
         <v>56</v>
       </c>
       <c r="AC2" t="s" s="0">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AD2" t="s" s="0">
         <v>58</v>
@@ -1148,7 +1166,7 @@
         <v>61</v>
       </c>
       <c r="AS2" t="s" s="0">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AT2" t="s" s="0">
         <v>57</v>

--- a/testData/SFS_AllMobile_Tbl_RThree.xlsx
+++ b/testData/SFS_AllMobile_Tbl_RThree.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="158">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -490,6 +490,9 @@
   </si>
   <si>
     <t>Appointment Date : 21/11/2023, Time : [ 09:05 AM to 09:09 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 21/11/2023, Time : [ 09:10 AM to 09:14 AM ]</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1082,7 @@
         <v>50</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P2" t="s" s="0">
         <v>51</v>

--- a/testData/SFS_AllMobile_Tbl_RThree.xlsx
+++ b/testData/SFS_AllMobile_Tbl_RThree.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="159">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -493,6 +493,9 @@
   </si>
   <si>
     <t>Appointment Date : 21/11/2023, Time : [ 09:10 AM to 09:14 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 21/11/2023, Time : [ 09:15 AM to 09:19 AM ]</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1085,7 @@
         <v>50</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P2" t="s" s="0">
         <v>51</v>

--- a/testData/SFS_AllMobile_Tbl_RThree.xlsx
+++ b/testData/SFS_AllMobile_Tbl_RThree.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="171">
   <si>
     <t>BuildUrl</t>
   </si>
@@ -496,6 +496,42 @@
   </si>
   <si>
     <t>Appointment Date : 21/11/2023, Time : [ 09:15 AM to 09:19 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 22/11/2023, Time : [ 09:10 AM to 09:14 AM ]</t>
+  </si>
+  <si>
+    <t>22/11/2023</t>
+  </si>
+  <si>
+    <t>Appointment Date : 22/11/2023, Time : [ 09:15 AM to 09:19 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 22/11/2023, Time : [ 09:20 AM to 09:24 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 28/11/2023, Time : [ 09:00 AM to 09:04 AM ]</t>
+  </si>
+  <si>
+    <t>28/11/2023</t>
+  </si>
+  <si>
+    <t>Appointment Date : 28/11/2023, Time : [ 09:05 AM to 09:09 AM ]</t>
+  </si>
+  <si>
+    <t>Appointment Date : 28/11/2023, Time : [ 09:10 AM to 09:14 AM ]</t>
+  </si>
+  <si>
+    <t>voice_record_28112023</t>
+  </si>
+  <si>
+    <t>Appointment Date : 28/11/2023, Time : [ 09:15 AM to 09:19 AM ]</t>
+  </si>
+  <si>
+    <t>formshow_28112023</t>
+  </si>
+  <si>
+    <t>Appointment Date : 28/11/2023, Time : [ 09:20 AM to 09:24 AM ]</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1121,7 @@
         <v>50</v>
       </c>
       <c r="O2" t="s" s="0">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="P2" t="s" s="0">
         <v>51</v>
@@ -1127,7 +1163,7 @@
         <v>56</v>
       </c>
       <c r="AC2" t="s" s="0">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="AD2" t="s" s="0">
         <v>58</v>
@@ -1172,7 +1208,7 @@
         <v>61</v>
       </c>
       <c r="AS2" t="s" s="0">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="AT2" t="s" s="0">
         <v>57</v>
@@ -1181,7 +1217,7 @@
         <v>64</v>
       </c>
       <c r="AV2" t="s" s="0">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="AW2" s="3" t="s">
         <v>71</v>
